--- a/Plan/Data_추출파일/000.언어테이블.xlsx
+++ b/Plan/Data_추출파일/000.언어테이블.xlsx
@@ -2,15 +2,15 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
-  <workbookPr codeName="현재_통합_문서" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://o365cntu-my.sharepoint.com/personal/201938026_s_cntu_ac_kr/Documents/Funigloo/1. 티니핑 프로젝트/Tiniffing_plan/Plan/Data_추출파일/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D63C6B48-EDA2-4E84-9F6D-268EE8CF433A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD38379B-7955-413C-BCAD-250D7F6A4A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{4A1B5D7F-29C6-465E-95B4-588C7225869A}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DE1FA62-3AAC-466F-A2C5-0A3809E3A11F}"/>
   </bookViews>
   <sheets>
     <sheet name="000.언어테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -43,6 +43,24 @@
   </si>
   <si>
     <t>english</t>
+  </si>
+  <si>
+    <t>일반</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>어려움</t>
+  </si>
+  <si>
+    <t>Hard</t>
+  </si>
+  <si>
+    <t>스테이지</t>
+  </si>
+  <si>
+    <t>Stage</t>
   </si>
 </sst>
 </file>
@@ -51,7 +69,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
@@ -405,17 +423,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4C86BFB-31AA-4CE5-9538-8BC367B5AB7F}">
-  <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:C1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6270866-F7E7-4438-971D-5369C6F1C580}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,6 +441,39 @@
       </c>
       <c r="C1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Plan/Data_추출파일/000.언어테이블.xlsx
+++ b/Plan/Data_추출파일/000.언어테이블.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Solid8\Desktop\Tiniffing_plan\Plan\Data_추출파일\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD38379B-7955-413C-BCAD-250D7F6A4A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{6378C55C-EEB1-4865-9841-AE8C7885D15F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1DE1FA62-3AAC-466F-A2C5-0A3809E3A11F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{50B6900B-B450-4C2B-9838-D2C418F68385}"/>
   </bookViews>
   <sheets>
     <sheet name="000.언어테이블" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +61,54 @@
   </si>
   <si>
     <t>Stage</t>
+  </si>
+  <si>
+    <t>성공</t>
+  </si>
+  <si>
+    <t>Clear</t>
+  </si>
+  <si>
+    <t>실패</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>게임 문의</t>
+  </si>
+  <si>
+    <t>Game Inquiry</t>
+  </si>
+  <si>
+    <t>게임 종료</t>
+  </si>
+  <si>
+    <t>Game Exit</t>
+  </si>
+  <si>
+    <t>재도전</t>
+  </si>
+  <si>
+    <t>Retry</t>
+  </si>
+  <si>
+    <t>환경설정</t>
+  </si>
+  <si>
+    <t>Preferences</t>
+  </si>
+  <si>
+    <t>배경음</t>
+  </si>
+  <si>
+    <t>BGM</t>
+  </si>
+  <si>
+    <t>효과음</t>
+  </si>
+  <si>
+    <t>SFX</t>
   </si>
 </sst>
 </file>
@@ -423,8 +471,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6270866-F7E7-4438-971D-5369C6F1C580}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A064B418-88A3-4DB8-BB72-18EB1F2631A1}">
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:C1048576"/>
@@ -476,6 +524,94 @@
         <v>8</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
